--- a/dashboard.xlsx
+++ b/dashboard.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LENOVO\Desktop\Hackaton-IA\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chris\Desktop\Travail\B3\Challenge 48H\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E0A39CD-2E0F-42D0-B447-A890AA04E0DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A773D35-33D5-4B29-8859-D65D4BAB1856}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A83FC675-C411-41F3-8772-90FE54D6A633}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{A83FC675-C411-41F3-8772-90FE54D6A633}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t xml:space="preserve">                                                                  Par rapport à cela, nous pouvons déterminer deux grands points: </t>
   </si>
@@ -33,41 +33,44 @@
     <t xml:space="preserve">         </t>
   </si>
   <si>
-    <t xml:space="preserve">Par cela, nous avons pu déterminer deux grands poiunts importants: </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Que se passe t-il durant le premier trimestre de 2024?  Focus dessus </t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">                                 </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">   Quelles sont les plaintes les plus recurrentes que nous avons eu? </t>
-    </r>
-  </si>
-  <si>
-    <t>Nous avons pu établir une corrélation entre le seuil d'inconfort et les mots clés pertinents, afin de comprendre quel type de plainte provoque plus d'inconfort chez le client</t>
-  </si>
-  <si>
     <t xml:space="preserve">                                                                                                                                                                  Analyse des réclamations ENGIE </t>
   </si>
   <si>
-    <t>Avec la dertermination des mots clés pertinents,</t>
+    <t xml:space="preserve">Que se passe t-il durant le premier trimestre de 2024, nous allons observer si les plaintes sont très négatives, ce qui expliquerai le nombre de plainte sur le moment </t>
+  </si>
+  <si>
+    <t>Les tweets sont considérés comme très urgent (plus de 2/3 urgents). Regardons quels type de problème sont majoritaires.</t>
+  </si>
+  <si>
+    <t>Ce graphique nous montre que les problèmes viennent majoritairement de la facturation, les problèmes urgent sont donc possiblement orienté au niveau de la facturation.</t>
+  </si>
+  <si>
+    <t>Cela vaut potentiellement le coup d'investir dans des moyens de réponses rapide spécialisé dans la facturation</t>
+  </si>
+  <si>
+    <t>Les tweets concernant les Pannes et urgences sont ceux qui pose le plus de problèmes d'inconfort aux clients.</t>
+  </si>
+  <si>
+    <t>Investir vers des moyens de réponse personnalisée pour ces personnes leur permettrait de se sentir suivis.</t>
+  </si>
+  <si>
+    <t>Nous nous sommes intéressé à la fréquence des mots dans les textes pour voir si cela pouvait être intéressant</t>
+  </si>
+  <si>
+    <t>Le nuage de mot en lui-même n'est pas forcément utile, mais cela nous a permis d'avoir une vision sur la présence des mots dans les tweets.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Un autre graphique pourra nous montrer l'importance des mots dans les tweets critiques </t>
+  </si>
+  <si>
+    <t>Avec ce graphique on peut voir que si certains mots sont présents dans les tweets, alors ceux-ci sont aussi très problèmatique pour le client</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -86,13 +89,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -151,7 +147,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
@@ -161,15 +157,14 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -191,16 +186,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>429261</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>129540</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>406738</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>77944</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>712210</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>93681</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>689687</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>42085</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -229,8 +224,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9878061" y="1056640"/>
-          <a:ext cx="6276677" cy="3504404"/>
+          <a:off x="6124651" y="878093"/>
+          <a:ext cx="6163124" cy="3758404"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -241,23 +236,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>579120</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>154013</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>121920</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>79227</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>729616</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>121919</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>163180</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>73609</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="Image 4">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E98C2E91-58E8-41F3-A313-F46A1AAB3DBE}"/>
+        <xdr:cNvPr id="9" name="Image 8">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040214A3-60BC-4E50-9581-BDAC695649D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -279,8 +274,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5334000" y="5305133"/>
-          <a:ext cx="7467600" cy="3399934"/>
+          <a:off x="3822440" y="5680037"/>
+          <a:ext cx="4072799" cy="4546101"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -291,23 +286,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>205741</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>412511</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>96021</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>294082</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>92336</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>735441</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>75724</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="9" name="Image 8">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{040214A3-60BC-4E50-9581-BDAC695649D5}"/>
+        <xdr:cNvPr id="11" name="Image 10">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78793D34-484D-4C12-8D1D-C34FC7BEF2B8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -329,8 +324,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="998221" y="9845040"/>
-          <a:ext cx="4169170" cy="4363221"/>
+          <a:off x="8799347" y="6221954"/>
+          <a:ext cx="6627006" cy="3221888"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -339,68 +334,18 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>415666</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>60960</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>83819</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>44348</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="11" name="Image 10">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{78793D34-484D-4C12-8D1D-C34FC7BEF2B8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="7547986" y="9845040"/>
-          <a:ext cx="6800473" cy="3092348"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>532011</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>87514</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>778391</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>95134</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>29695</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>39889</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>37831</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
@@ -414,9 +359,9 @@
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm>
-          <a:off x="4515193" y="4174605"/>
-          <a:ext cx="246380" cy="7620"/>
+        <a:xfrm flipH="1">
+          <a:off x="9308166" y="4634301"/>
+          <a:ext cx="8136" cy="293486"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -444,49 +389,52 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>342900</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>54684</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>13334</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>207084</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>188594</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="18" name="Connecteur droit avec flèche 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7796ADBF-ED32-4459-AE18-616B2D4061F2}"/>
+        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A8EE1E-78B5-4BAD-B6BF-CDDE3104AC05}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="7208520" y="5097780"/>
-          <a:ext cx="266700" cy="7620"/>
+        <a:xfrm flipH="1">
+          <a:off x="7786743" y="5380952"/>
+          <a:ext cx="925606" cy="746760"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -497,32 +445,32 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>502920</xdr:colOff>
-      <xdr:row>49</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>655320</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>160020</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>193525</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>36979</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>353546</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>158899</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="23" name="Connecteur droit avec flèche 22">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{43A8EE1E-78B5-4BAD-B6BF-CDDE3104AC05}"/>
+        <xdr:cNvPr id="28" name="Connecteur droit avec flèche 27">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8305443C-C48F-4022-9DB3-9F5A579FB0DD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="5257800" y="9410700"/>
-          <a:ext cx="944880" cy="716280"/>
+        <a:xfrm>
+          <a:off x="9471996" y="5404597"/>
+          <a:ext cx="933226" cy="693420"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -551,25 +499,175 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>132075</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>127231</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>731390</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>62406</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="40" name="Image 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F620CE00-57BF-4086-BFB8-3967559EF198}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="17848575" y="7391079"/>
+          <a:ext cx="4450728" cy="3380740"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>670782</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50183</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>255146</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170492</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="41" name="Image 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61047923-6F8C-454A-8ECA-00388F3778D6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="16846717" y="1781248"/>
+          <a:ext cx="6516907" cy="3748092"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>773204</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>78442</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>316004</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>3656</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Image 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FC3F1715-C3F9-4EB3-8CF9-34E57031759D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1546410" y="11183471"/>
+          <a:ext cx="7274859" cy="3544714"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>449580</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>493059</xdr:colOff>
       <xdr:row>50</xdr:row>
+      <xdr:rowOff>22412</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>717177</xdr:colOff>
+      <xdr:row>53</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>609600</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>121920</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="28" name="Connecteur droit avec flèche 27">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8305443C-C48F-4022-9DB3-9F5A579FB0DD}"/>
+        <xdr:cNvPr id="6" name="Connecteur droit avec flèche 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26AF7B5B-4CA6-4B36-9400-9763F8584CE5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -577,8 +675,8 @@
       </xdr:nvCxnSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6789420" y="9418320"/>
-          <a:ext cx="952500" cy="670560"/>
+          <a:off x="5132294" y="9793941"/>
+          <a:ext cx="224118" cy="549088"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -607,151 +705,54 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>273853</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>56097</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>102886</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>7837</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="40" name="Image 39">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F620CE00-57BF-4086-BFB8-3967559EF198}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="15409944" y="10100642"/>
-          <a:ext cx="4608851" cy="3276831"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>549555</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>178942</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>27</xdr:col>
-      <xdr:colOff>133918</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>108750</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="41" name="Image 40">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{61047923-6F8C-454A-8ECA-00388F3778D6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6" cstate="print">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="14889010" y="5201215"/>
-          <a:ext cx="6754090" cy="3635899"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>554181</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>115454</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>24245</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>123074</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>611841</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>29135</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>100853</xdr:colOff>
+      <xdr:row>57</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:to>
     <xdr:cxnSp macro="">
       <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="42" name="Connecteur droit avec flèche 41">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66F40085-28AA-4F86-BB74-B33F407617A6}"/>
+        <xdr:cNvPr id="10" name="Connecteur droit avec flèche 9">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D13F9C6D-D86F-4F8D-947C-5557A438DDE9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvCxnSpPr/>
       </xdr:nvCxnSpPr>
       <xdr:spPr>
-        <a:xfrm flipV="1">
-          <a:off x="17283545" y="4941454"/>
-          <a:ext cx="266700" cy="7620"/>
+        <a:xfrm>
+          <a:off x="5251076" y="10753164"/>
+          <a:ext cx="262218" cy="407895"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
         </a:prstGeom>
         <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
           <a:tailEnd type="triangle"/>
         </a:ln>
       </xdr:spPr>
       <xdr:style>
         <a:lnRef idx="1">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
         <a:fillRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="tx1"/>
@@ -760,13 +761,351 @@
     </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11206</xdr:colOff>
+      <xdr:row>76</xdr:row>
+      <xdr:rowOff>89648</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>136712</xdr:colOff>
+      <xdr:row>78</xdr:row>
+      <xdr:rowOff>147917</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="12" name="Connecteur droit avec flèche 11">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D55E47-EFCF-42C0-8739-AE47006DE53A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5423647" y="14814177"/>
+          <a:ext cx="125506" cy="439269"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>54572</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>122143</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>145677</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="Connecteur droit avec flèche 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB94892C-C279-4A59-A3CF-0825B73E30BF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12425866" y="9490261"/>
+          <a:ext cx="326428" cy="1188945"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>630115</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>21981</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>78301</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>50183</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="Connecteur droit avec flèche 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{04E68672-617B-4566-A174-D8C131B4DA77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="41" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19863288" y="1186962"/>
+          <a:ext cx="217513" cy="599702"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>705971</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>22411</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="26" name="Connecteur droit avec flèche 25">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B45CF4FD-78B6-4204-9129-60BE917E2D40}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20036118" y="5580529"/>
+          <a:ext cx="392206" cy="537883"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>616324</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>100853</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>134471</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>179294</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="Connecteur droit avec flèche 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DD57D259-67A4-42D6-B458-CA7BE060EFB8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="19946471" y="6611471"/>
+          <a:ext cx="291353" cy="649941"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>73960</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>51548</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>324971</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>156883</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="33" name="Connecteur droit avec flèche 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B7C5DA62-0FC9-4263-8B7C-DBBF84C7493F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="20177313" y="10775577"/>
+          <a:ext cx="251011" cy="1057835"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="tx1"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office 2013 – 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -804,7 +1143,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -910,7 +1249,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1052,7 +1391,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1062,29 +1401,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0551B99A-2D7E-4FF2-A2BD-C3E3F0D95585}">
   <dimension ref="B3:W100"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A44" zoomScale="66" workbookViewId="0">
-      <selection activeCell="J70" sqref="J70"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AA58" sqref="AA58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16384" width="11.5546875" style="1"/>
+    <col min="1" max="16384" width="11.5703125" style="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="5:13" ht="31.2" x14ac:dyDescent="0.6">
-      <c r="E3" s="6"/>
-      <c r="F3" s="6"/>
-      <c r="G3" s="7"/>
+    <row r="3" spans="5:23" ht="31.5" x14ac:dyDescent="0.5">
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="6"/>
       <c r="H3" s="3" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7"/>
-      <c r="K3" s="8"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="6"/>
+      <c r="K3" s="7"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" spans="5:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="5:23" x14ac:dyDescent="0.25">
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
       <c r="G4" s="4"/>
@@ -1093,28 +1432,29 @@
       <c r="J4" s="4"/>
       <c r="K4" s="4"/>
     </row>
-    <row r="22" spans="3:23" x14ac:dyDescent="0.3">
-      <c r="G22" s="1" t="s">
+    <row r="5" spans="5:23" x14ac:dyDescent="0.25">
+      <c r="W5" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="3:22" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="C26" s="8"/>
+      <c r="D26" s="8"/>
+      <c r="G26" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="5"/>
-      <c r="G26" s="5"/>
-      <c r="H26" s="5"/>
-      <c r="W26" s="1" t="s">
-        <v>7</v>
+    <row r="32" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V32" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="27" spans="3:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="I27" s="1" t="s">
-        <v>4</v>
+    <row r="33" spans="5:22" x14ac:dyDescent="0.25">
+      <c r="V33" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="48" spans="5:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:22" x14ac:dyDescent="0.25">
       <c r="E48" s="1" t="s">
         <v>0</v>
       </c>
@@ -1122,18 +1462,44 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="7:7" ht="16.8" x14ac:dyDescent="0.3">
-      <c r="G49" s="10" t="s">
-        <v>2</v>
+    <row r="49" spans="3:22" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="G49" s="9"/>
+    </row>
+    <row r="54" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="C54" s="1" t="s">
+        <v>4</v>
       </c>
     </row>
-    <row r="76" spans="9:9" x14ac:dyDescent="0.3">
-      <c r="I76" s="11"/>
+    <row r="56" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N56" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="100" spans="2:2" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B100" s="9" t="s">
+    <row r="57" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="N57" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62" spans="3:22" x14ac:dyDescent="0.25">
+      <c r="V62" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="76" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="I76" s="10"/>
+    </row>
+    <row r="80" spans="3:9" x14ac:dyDescent="0.25">
+      <c r="C80" s="1" t="s">
         <v>5</v>
       </c>
+    </row>
+    <row r="81" spans="3:3" x14ac:dyDescent="0.25">
+      <c r="C81" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="B100" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
